--- a/StokList.xlsx
+++ b/StokList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Stok Kodu</t>
   </si>
@@ -50,34 +50,10 @@
     <t>Oluşturma Tarihi</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>14141</t>
-  </si>
-  <si>
     <t>deneme</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4312</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>1212-12-12</t>
-  </si>
-  <si>
-    <t>333</t>
+    <t>121211</t>
   </si>
   <si>
     <t>3333123</t>
@@ -89,22 +65,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>deneme3</t>
-  </si>
-  <si>
-    <t>LASDAKDJSAKSD</t>
-  </si>
-  <si>
-    <t>2023-07-15</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
     <t>3232</t>
-  </si>
-  <si>
-    <t>denemeKDV</t>
   </si>
   <si>
     <t>1212312321</t>
@@ -155,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -210,16 +171,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>5.5</v>
@@ -228,89 +189,13 @@
         <v>321.0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>3.333</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>333.0</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>98.98</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>7782.0</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
